--- a/Resources/testAnalysis.xlsx
+++ b/Resources/testAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panda\Documents\GitHub\GOGREEN-Research\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3908359D-9154-4432-AE06-F211BB8F544D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78B3AB9-0A6A-410D-8517-47CBE51A30FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="2505" windowWidth="21600" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6375" yWindow="1695" windowWidth="21600" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,14 +418,14 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>120</v>
       </c>
       <c r="E2">
         <f>B2+C2</f>
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -436,14 +436,14 @@
         <v>810</v>
       </c>
       <c r="C3">
-        <v>425</v>
+        <v>342</v>
       </c>
       <c r="D3">
         <v>1152</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E4" si="0">B3+C3</f>
-        <v>1235</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -454,14 +454,14 @@
         <v>810</v>
       </c>
       <c r="C4">
-        <v>425</v>
+        <v>342</v>
       </c>
       <c r="D4">
         <v>1152</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>1235</v>
+        <v>1152</v>
       </c>
     </row>
   </sheetData>
